--- a/docs/purple_red.xlsx
+++ b/docs/purple_red.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/code/water-safety/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9C0178-8F3B-BC40-990D-B04561CAF019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF096F9-1FF3-2640-9CB2-F3799EE97630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">禁止公告!$A$1:$F$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'縣市+學會資料'!$A$1:$D$726</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="1024">
   <si>
     <t>所在縣市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3177,9 +3177,6 @@
   </si>
   <si>
     <t>南澳地區海域</t>
-  </si>
-  <si>
-    <t>除首揭特定區域、油羅溪、泰崗溪、上坪溪及新月沙灣高潮線向外延伸3公里內之水域以外，其他區域禁止水域遊憩活動。</t>
   </si>
   <si>
     <t>大安海水浴場</t>
@@ -4484,10 +4481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B8C7E0-C41F-8E4E-98DD-8096E8890131}">
-  <dimension ref="A1:E734"/>
+  <dimension ref="A1:E733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="A528" sqref="A528:XFD528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4498,7 +4495,7 @@
     <col min="5" max="5" width="192.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="68">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -4520,7 +4517,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="84"/>
@@ -4851,7 +4848,7 @@
       <c r="D31" s="14"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="38">
+    <row r="32" spans="1:5" ht="19">
       <c r="A32" s="72" t="s">
         <v>3</v>
       </c>
@@ -4893,7 +4890,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="96" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>950</v>
@@ -4956,7 +4953,7 @@
         <v>47</v>
       </c>
       <c r="D40" s="93" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -6123,7 +6120,7 @@
         <v>40</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="14"/>
@@ -6883,7 +6880,7 @@
       <c r="D211" s="14"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="1:5" ht="38">
+    <row r="212" spans="1:5" ht="19">
       <c r="A212" s="73" t="s">
         <v>40</v>
       </c>
@@ -6922,7 +6919,7 @@
       <c r="D214" s="14"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="1:5" ht="38">
+    <row r="215" spans="1:5" ht="19">
       <c r="A215" s="73" t="s">
         <v>40</v>
       </c>
@@ -6933,7 +6930,7 @@
       </c>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:5" ht="38">
+    <row r="216" spans="1:5" ht="19">
       <c r="A216" s="73" t="s">
         <v>40</v>
       </c>
@@ -6944,7 +6941,7 @@
       </c>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="1:5" ht="38">
+    <row r="217" spans="1:5" ht="19">
       <c r="A217" s="73" t="s">
         <v>232</v>
       </c>
@@ -7090,7 +7087,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="38">
+    <row r="229" spans="1:5" ht="19">
       <c r="A229" s="73" t="s">
         <v>248</v>
       </c>
@@ -7105,7 +7102,7 @@
       </c>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="1:5" ht="38">
+    <row r="230" spans="1:5" ht="19">
       <c r="A230" s="73" t="s">
         <v>248</v>
       </c>
@@ -7116,7 +7113,7 @@
       <c r="D230" s="14"/>
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="1:5" ht="57">
+    <row r="231" spans="1:5" ht="19">
       <c r="A231" s="73" t="s">
         <v>248</v>
       </c>
@@ -7127,7 +7124,7 @@
       <c r="D231" s="14"/>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="1:5" ht="76">
+    <row r="232" spans="1:5" ht="19">
       <c r="A232" s="73" t="s">
         <v>248</v>
       </c>
@@ -7140,7 +7137,7 @@
       <c r="D232" s="14"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="1:5" ht="57">
+    <row r="233" spans="1:5" ht="19">
       <c r="A233" s="73" t="s">
         <v>248</v>
       </c>
@@ -7153,7 +7150,7 @@
       <c r="D233" s="14"/>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="1:5" ht="57">
+    <row r="234" spans="1:5" ht="19">
       <c r="A234" s="73" t="s">
         <v>248</v>
       </c>
@@ -7164,7 +7161,7 @@
       <c r="D234" s="14"/>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="1:5" ht="57">
+    <row r="235" spans="1:5" ht="19">
       <c r="A235" s="73" t="s">
         <v>248</v>
       </c>
@@ -7175,7 +7172,7 @@
       <c r="D235" s="14"/>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="1:5" ht="57">
+    <row r="236" spans="1:5" ht="19">
       <c r="A236" s="73" t="s">
         <v>248</v>
       </c>
@@ -7186,7 +7183,7 @@
       <c r="D236" s="14"/>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="1:5" ht="57">
+    <row r="237" spans="1:5" ht="19">
       <c r="A237" s="73" t="s">
         <v>248</v>
       </c>
@@ -7197,7 +7194,7 @@
       <c r="D237" s="14"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" ht="57">
+    <row r="238" spans="1:5" ht="19">
       <c r="A238" s="73" t="s">
         <v>248</v>
       </c>
@@ -7208,7 +7205,7 @@
       <c r="D238" s="14"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="1:5" ht="76">
+    <row r="239" spans="1:5" ht="19">
       <c r="A239" s="73" t="s">
         <v>248</v>
       </c>
@@ -7771,7 +7768,7 @@
         <v>865</v>
       </c>
       <c r="D285" s="99" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E285" s="2"/>
     </row>
@@ -7939,7 +7936,7 @@
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="99" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E299" s="2"/>
     </row>
@@ -7952,7 +7949,7 @@
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="99" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E300" s="2"/>
     </row>
@@ -7965,7 +7962,7 @@
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="99" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E301" s="2"/>
     </row>
@@ -8094,7 +8091,7 @@
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="99" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E312" s="2"/>
     </row>
@@ -8140,7 +8137,7 @@
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="99" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E316" s="2"/>
     </row>
@@ -8153,7 +8150,7 @@
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="99" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E317" s="2"/>
     </row>
@@ -8765,7 +8762,7 @@
       </c>
       <c r="C369" s="78"/>
       <c r="D369" s="94" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E369" s="2"/>
     </row>
@@ -8828,31 +8825,31 @@
       <c r="D374" s="14"/>
       <c r="E374" s="2"/>
     </row>
-    <row r="375" spans="1:5" ht="38">
+    <row r="375" spans="1:5" ht="19">
       <c r="A375" s="73" t="s">
         <v>403</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C375" s="78"/>
       <c r="D375" s="94" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E375" s="2"/>
     </row>
-    <row r="376" spans="1:5" ht="38">
+    <row r="376" spans="1:5" ht="19">
       <c r="A376" s="73" t="s">
         <v>403</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C376" s="79" t="s">
         <v>848</v>
       </c>
       <c r="D376" s="94" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E376" s="2"/>
     </row>
@@ -8984,7 +8981,7 @@
       <c r="D386" s="14"/>
       <c r="E386" s="2"/>
     </row>
-    <row r="387" spans="1:5" ht="38">
+    <row r="387" spans="1:5" ht="19">
       <c r="A387" s="73" t="s">
         <v>403</v>
       </c>
@@ -8995,7 +8992,7 @@
         <v>842</v>
       </c>
       <c r="D387" s="14" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E387" s="2"/>
     </row>
@@ -9075,14 +9072,14 @@
       <c r="D393" s="14"/>
       <c r="E393" s="2"/>
     </row>
-    <row r="394" spans="1:5" ht="38">
+    <row r="394" spans="1:5" ht="19">
       <c r="A394" s="73" t="s">
         <v>403</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" s="78"/>
       <c r="D394" s="84" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E394" s="19"/>
     </row>
@@ -9145,7 +9142,7 @@
       <c r="D399" s="14"/>
       <c r="E399" s="2"/>
     </row>
-    <row r="400" spans="1:5" ht="38">
+    <row r="400" spans="1:5" ht="19">
       <c r="A400" s="73" t="s">
         <v>439</v>
       </c>
@@ -9154,11 +9151,11 @@
       </c>
       <c r="C400" s="74"/>
       <c r="D400" s="94" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E400" s="2"/>
     </row>
-    <row r="401" spans="1:5" ht="57">
+    <row r="401" spans="1:5" ht="38">
       <c r="A401" s="73" t="s">
         <v>439</v>
       </c>
@@ -9167,7 +9164,7 @@
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="94" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E401" s="2"/>
     </row>
@@ -9195,7 +9192,7 @@
       <c r="D403" s="14"/>
       <c r="E403" s="2"/>
     </row>
-    <row r="404" spans="1:5" ht="38">
+    <row r="404" spans="1:5" ht="19">
       <c r="A404" s="73" t="s">
         <v>439</v>
       </c>
@@ -9282,7 +9279,7 @@
       <c r="D410" s="14"/>
       <c r="E410" s="2"/>
     </row>
-    <row r="411" spans="1:5" ht="57">
+    <row r="411" spans="1:5" ht="38">
       <c r="A411" s="73" t="s">
         <v>450</v>
       </c>
@@ -9291,7 +9288,7 @@
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E411" s="2"/>
     </row>
@@ -9383,7 +9380,7 @@
         <v>463</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="19">
@@ -9421,17 +9418,17 @@
       <c r="D421" s="14"/>
       <c r="E421" s="2"/>
     </row>
-    <row r="422" spans="1:5" ht="57">
+    <row r="422" spans="1:5" ht="19">
       <c r="A422" s="73" t="s">
         <v>460</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="14" t="s">
+        <v>965</v>
+      </c>
+      <c r="E422" s="2" t="s">
         <v>966</v>
-      </c>
-      <c r="E422" s="2" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="19">
@@ -10589,7 +10586,7 @@
       <c r="D521" s="14"/>
       <c r="E521" s="2"/>
     </row>
-    <row r="522" spans="1:5" ht="38">
+    <row r="522" spans="1:5" ht="19">
       <c r="A522" s="73" t="s">
         <v>519</v>
       </c>
@@ -10661,14 +10658,16 @@
       </c>
       <c r="E527" s="2"/>
     </row>
-    <row r="528" spans="1:5" ht="209">
+    <row r="528" spans="1:5" ht="19">
       <c r="A528" s="73" t="s">
-        <v>519</v>
-      </c>
-      <c r="B528" s="2"/>
+        <v>867</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>573</v>
+      </c>
       <c r="C528" s="2"/>
-      <c r="D528" s="14" t="s">
-        <v>960</v>
+      <c r="D528" s="93" t="s">
+        <v>573</v>
       </c>
       <c r="E528" s="2"/>
     </row>
@@ -10677,11 +10676,13 @@
         <v>867</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C529" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>574</v>
+      </c>
       <c r="D529" s="93" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E529" s="2"/>
     </row>
@@ -10690,13 +10691,11 @@
         <v>867</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>574</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="C530" s="2"/>
       <c r="D530" s="93" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E530" s="2"/>
     </row>
@@ -10705,12 +10704,10 @@
         <v>867</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C531" s="2"/>
-      <c r="D531" s="93" t="s">
-        <v>575</v>
-      </c>
+      <c r="D531" s="14"/>
       <c r="E531" s="2"/>
     </row>
     <row r="532" spans="1:5" ht="19">
@@ -10718,7 +10715,7 @@
         <v>867</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="14"/>
@@ -10729,7 +10726,7 @@
         <v>867</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="14"/>
@@ -10740,7 +10737,7 @@
         <v>867</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="14"/>
@@ -10751,7 +10748,7 @@
         <v>867</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="14"/>
@@ -10762,7 +10759,7 @@
         <v>867</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="14"/>
@@ -10773,7 +10770,7 @@
         <v>867</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" s="14"/>
@@ -10784,7 +10781,7 @@
         <v>867</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" s="14"/>
@@ -10795,7 +10792,7 @@
         <v>867</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" s="14"/>
@@ -10806,7 +10803,7 @@
         <v>867</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="14"/>
@@ -10817,7 +10814,7 @@
         <v>867</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" s="14"/>
@@ -10828,7 +10825,7 @@
         <v>867</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="14"/>
@@ -10839,33 +10836,33 @@
         <v>867</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C543" s="2"/>
-      <c r="D543" s="14"/>
-      <c r="E543" s="2"/>
+      <c r="D543" s="93" t="s">
+        <v>588</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="544" spans="1:5" ht="19">
       <c r="A544" s="73" t="s">
         <v>867</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C544" s="2"/>
-      <c r="D544" s="93" t="s">
-        <v>588</v>
-      </c>
-      <c r="E544" s="2" t="s">
-        <v>970</v>
-      </c>
+      <c r="D544" s="14"/>
+      <c r="E544" s="2"/>
     </row>
     <row r="545" spans="1:5" ht="19">
       <c r="A545" s="73" t="s">
-        <v>867</v>
+        <v>590</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C545" s="2"/>
       <c r="D545" s="14"/>
@@ -10876,24 +10873,28 @@
         <v>590</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C546" s="2"/>
-      <c r="D546" s="14"/>
+        <v>592</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D546" s="94" t="s">
+        <v>983</v>
+      </c>
       <c r="E546" s="2"/>
     </row>
-    <row r="547" spans="1:5" ht="38">
+    <row r="547" spans="1:5" ht="19">
       <c r="A547" s="73" t="s">
         <v>590</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C547" s="2" t="s">
-        <v>784</v>
+        <v>593</v>
+      </c>
+      <c r="C547" s="14" t="s">
+        <v>785</v>
       </c>
       <c r="D547" s="94" t="s">
-        <v>984</v>
+        <v>785</v>
       </c>
       <c r="E547" s="2"/>
     </row>
@@ -10902,14 +10903,10 @@
         <v>590</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C548" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="D548" s="94" t="s">
-        <v>785</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="C548" s="2"/>
+      <c r="D548" s="14"/>
       <c r="E548" s="2"/>
     </row>
     <row r="549" spans="1:5" ht="19">
@@ -10917,7 +10914,7 @@
         <v>590</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C549" s="2"/>
       <c r="D549" s="14"/>
@@ -10928,7 +10925,7 @@
         <v>590</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C550" s="2"/>
       <c r="D550" s="14"/>
@@ -10939,7 +10936,7 @@
         <v>590</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" s="14"/>
@@ -10950,7 +10947,7 @@
         <v>590</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C552" s="2"/>
       <c r="D552" s="14"/>
@@ -10961,7 +10958,7 @@
         <v>590</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C553" s="2"/>
       <c r="D553" s="14"/>
@@ -10972,7 +10969,7 @@
         <v>590</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" s="14"/>
@@ -10983,7 +10980,7 @@
         <v>590</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="14"/>
@@ -10994,7 +10991,7 @@
         <v>590</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" s="14"/>
@@ -11005,7 +11002,7 @@
         <v>590</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" s="14"/>
@@ -11016,7 +11013,7 @@
         <v>590</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" s="14"/>
@@ -11027,7 +11024,7 @@
         <v>590</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C559" s="2"/>
       <c r="D559" s="14"/>
@@ -11038,7 +11035,7 @@
         <v>590</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C560" s="2"/>
       <c r="D560" s="14"/>
@@ -11049,7 +11046,7 @@
         <v>590</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="14"/>
@@ -11060,7 +11057,7 @@
         <v>590</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C562" s="2"/>
       <c r="D562" s="14"/>
@@ -11071,7 +11068,7 @@
         <v>590</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="14"/>
@@ -11082,7 +11079,7 @@
         <v>590</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="14"/>
@@ -11093,7 +11090,7 @@
         <v>590</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="14"/>
@@ -11104,7 +11101,7 @@
         <v>590</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="14"/>
@@ -11115,7 +11112,7 @@
         <v>590</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="14"/>
@@ -11126,7 +11123,7 @@
         <v>590</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="14"/>
@@ -11137,7 +11134,7 @@
         <v>590</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="14"/>
@@ -11148,7 +11145,7 @@
         <v>590</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="14"/>
@@ -11159,7 +11156,7 @@
         <v>590</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="14"/>
@@ -11170,7 +11167,7 @@
         <v>590</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="14"/>
@@ -11181,7 +11178,7 @@
         <v>590</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="14"/>
@@ -11192,7 +11189,7 @@
         <v>590</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="14"/>
@@ -11203,7 +11200,7 @@
         <v>590</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="14"/>
@@ -11214,7 +11211,7 @@
         <v>590</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="14"/>
@@ -11225,7 +11222,7 @@
         <v>590</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="14"/>
@@ -11236,7 +11233,7 @@
         <v>590</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="14"/>
@@ -11247,7 +11244,7 @@
         <v>590</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="14"/>
@@ -11258,7 +11255,7 @@
         <v>590</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="14"/>
@@ -11269,7 +11266,7 @@
         <v>590</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="14"/>
@@ -11280,7 +11277,7 @@
         <v>590</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="14"/>
@@ -11291,7 +11288,7 @@
         <v>590</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="14"/>
@@ -11302,7 +11299,7 @@
         <v>590</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="14"/>
@@ -11313,7 +11310,7 @@
         <v>590</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="14"/>
@@ -11324,9 +11321,11 @@
         <v>590</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C586" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>786</v>
+      </c>
       <c r="D586" s="14"/>
       <c r="E586" s="2"/>
     </row>
@@ -11335,11 +11334,9 @@
         <v>590</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C587" s="2" t="s">
-        <v>786</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="C587" s="2"/>
       <c r="D587" s="14"/>
       <c r="E587" s="2"/>
     </row>
@@ -11348,7 +11345,7 @@
         <v>590</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="14"/>
@@ -11359,7 +11356,7 @@
         <v>590</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="14"/>
@@ -11370,7 +11367,7 @@
         <v>590</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="14"/>
@@ -11381,7 +11378,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="14"/>
@@ -11392,7 +11389,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="14"/>
@@ -11403,9 +11400,11 @@
         <v>590</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C593" s="2"/>
+        <v>639</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>787</v>
+      </c>
       <c r="D593" s="14"/>
       <c r="E593" s="2"/>
     </row>
@@ -11414,7 +11413,7 @@
         <v>590</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>787</v>
@@ -11427,11 +11426,9 @@
         <v>590</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C595" s="2" t="s">
-        <v>787</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="C595" s="2"/>
       <c r="D595" s="14"/>
       <c r="E595" s="2"/>
     </row>
@@ -11440,7 +11437,7 @@
         <v>590</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="14"/>
@@ -11451,7 +11448,7 @@
         <v>590</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="14"/>
@@ -11462,10 +11459,14 @@
         <v>590</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C598" s="2"/>
-      <c r="D598" s="14"/>
+        <v>644</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D598" s="93" t="s">
+        <v>798</v>
+      </c>
       <c r="E598" s="2"/>
     </row>
     <row r="599" spans="1:5" ht="19">
@@ -11473,14 +11474,10 @@
         <v>590</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C599" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="D599" s="93" t="s">
-        <v>798</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="C599" s="2"/>
+      <c r="D599" s="14"/>
       <c r="E599" s="2"/>
     </row>
     <row r="600" spans="1:5" ht="19">
@@ -11488,7 +11485,7 @@
         <v>590</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="14"/>
@@ -11499,7 +11496,7 @@
         <v>590</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="14"/>
@@ -11510,7 +11507,7 @@
         <v>590</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="14"/>
@@ -11521,7 +11518,7 @@
         <v>590</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="14"/>
@@ -11532,10 +11529,14 @@
         <v>590</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C604" s="2"/>
-      <c r="D604" s="14"/>
+        <v>650</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D604" s="93" t="s">
+        <v>799</v>
+      </c>
       <c r="E604" s="2"/>
     </row>
     <row r="605" spans="1:5" ht="19">
@@ -11543,14 +11544,12 @@
         <v>590</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="D605" s="93" t="s">
-        <v>799</v>
-      </c>
+      <c r="D605" s="14"/>
       <c r="E605" s="2"/>
     </row>
     <row r="606" spans="1:5" ht="19">
@@ -11558,12 +11557,12 @@
         <v>590</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C606" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="D606" s="14"/>
+        <v>652</v>
+      </c>
+      <c r="C606" s="2"/>
+      <c r="D606" s="93" t="s">
+        <v>982</v>
+      </c>
       <c r="E606" s="2"/>
     </row>
     <row r="607" spans="1:5" ht="19">
@@ -11571,12 +11570,12 @@
         <v>590</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C607" s="2"/>
-      <c r="D607" s="93" t="s">
-        <v>983</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D607" s="14"/>
       <c r="E607" s="2"/>
     </row>
     <row r="608" spans="1:5" ht="19">
@@ -11584,11 +11583,9 @@
         <v>590</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C608" s="2" t="s">
-        <v>801</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="C608" s="2"/>
       <c r="D608" s="14"/>
       <c r="E608" s="2"/>
     </row>
@@ -11597,10 +11594,12 @@
         <v>590</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C609" s="2"/>
-      <c r="D609" s="14"/>
+      <c r="D609" s="93" t="s">
+        <v>981</v>
+      </c>
       <c r="E609" s="2"/>
     </row>
     <row r="610" spans="1:5" ht="19">
@@ -11608,12 +11607,10 @@
         <v>590</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C610" s="2"/>
-      <c r="D610" s="93" t="s">
-        <v>982</v>
-      </c>
+      <c r="D610" s="14"/>
       <c r="E610" s="2"/>
     </row>
     <row r="611" spans="1:5" ht="19">
@@ -11621,7 +11618,7 @@
         <v>590</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="14"/>
@@ -11632,7 +11629,7 @@
         <v>590</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="14"/>
@@ -11643,7 +11640,7 @@
         <v>590</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="14"/>
@@ -11654,7 +11651,7 @@
         <v>590</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="14"/>
@@ -11665,7 +11662,7 @@
         <v>590</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="14"/>
@@ -11676,7 +11673,7 @@
         <v>590</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="14"/>
@@ -11687,7 +11684,7 @@
         <v>590</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="14"/>
@@ -11698,7 +11695,7 @@
         <v>590</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="14"/>
@@ -11709,7 +11706,7 @@
         <v>590</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="14"/>
@@ -11720,7 +11717,7 @@
         <v>590</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="14"/>
@@ -11731,7 +11728,7 @@
         <v>590</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="14"/>
@@ -11742,7 +11739,7 @@
         <v>590</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="14"/>
@@ -11753,7 +11750,7 @@
         <v>590</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="14"/>
@@ -11764,7 +11761,7 @@
         <v>590</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="14"/>
@@ -11775,7 +11772,7 @@
         <v>590</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="14"/>
@@ -11786,7 +11783,7 @@
         <v>590</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="14"/>
@@ -11797,7 +11794,7 @@
         <v>590</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="14"/>
@@ -11808,7 +11805,7 @@
         <v>590</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="14"/>
@@ -11819,7 +11816,7 @@
         <v>590</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="14"/>
@@ -11830,7 +11827,7 @@
         <v>590</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="14"/>
@@ -11841,7 +11838,7 @@
         <v>590</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="14"/>
@@ -11852,7 +11849,7 @@
         <v>590</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="14"/>
@@ -11863,7 +11860,7 @@
         <v>590</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="14"/>
@@ -11874,7 +11871,7 @@
         <v>590</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="14"/>
@@ -11885,7 +11882,7 @@
         <v>590</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="14"/>
@@ -11896,7 +11893,7 @@
         <v>590</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="14"/>
@@ -11907,7 +11904,7 @@
         <v>590</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="14"/>
@@ -11918,7 +11915,7 @@
         <v>590</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="14"/>
@@ -11929,7 +11926,7 @@
         <v>590</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="14"/>
@@ -11940,7 +11937,7 @@
         <v>590</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="14"/>
@@ -11951,7 +11948,7 @@
         <v>590</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="14"/>
@@ -11962,7 +11959,7 @@
         <v>590</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="14"/>
@@ -11973,7 +11970,7 @@
         <v>590</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="14"/>
@@ -11984,7 +11981,7 @@
         <v>590</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="14"/>
@@ -11995,7 +11992,7 @@
         <v>590</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="14"/>
@@ -12006,7 +12003,7 @@
         <v>590</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="14"/>
@@ -12017,7 +12014,7 @@
         <v>590</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="14"/>
@@ -12028,7 +12025,7 @@
         <v>590</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="14"/>
@@ -12039,7 +12036,7 @@
         <v>590</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="14"/>
@@ -12050,7 +12047,7 @@
         <v>590</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="14"/>
@@ -12061,7 +12058,7 @@
         <v>590</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="14"/>
@@ -12072,7 +12069,7 @@
         <v>590</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="14"/>
@@ -12083,7 +12080,7 @@
         <v>590</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="14"/>
@@ -12094,7 +12091,7 @@
         <v>590</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="14"/>
@@ -12105,7 +12102,7 @@
         <v>590</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="14"/>
@@ -12116,7 +12113,7 @@
         <v>590</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="14"/>
@@ -12127,7 +12124,7 @@
         <v>590</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="14"/>
@@ -12138,7 +12135,7 @@
         <v>590</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="14"/>
@@ -12149,7 +12146,7 @@
         <v>590</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="14"/>
@@ -12160,7 +12157,7 @@
         <v>590</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="14"/>
@@ -12171,7 +12168,7 @@
         <v>590</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="14"/>
@@ -12182,7 +12179,7 @@
         <v>590</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="14"/>
@@ -12193,7 +12190,7 @@
         <v>590</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="14"/>
@@ -12204,7 +12201,7 @@
         <v>590</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="14"/>
@@ -12215,7 +12212,7 @@
         <v>590</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="14"/>
@@ -12226,7 +12223,7 @@
         <v>590</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="14"/>
@@ -12237,7 +12234,7 @@
         <v>590</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="14"/>
@@ -12248,7 +12245,7 @@
         <v>590</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="14"/>
@@ -12259,9 +12256,11 @@
         <v>590</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C669" s="2"/>
+        <v>715</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="D669" s="14"/>
       <c r="E669" s="2"/>
     </row>
@@ -12270,11 +12269,9 @@
         <v>590</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="C670" s="2" t="s">
-        <v>802</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="C670" s="2"/>
       <c r="D670" s="14"/>
       <c r="E670" s="2"/>
     </row>
@@ -12283,7 +12280,7 @@
         <v>590</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="14"/>
@@ -12294,7 +12291,7 @@
         <v>590</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="14"/>
@@ -12305,7 +12302,7 @@
         <v>590</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="14"/>
@@ -12316,7 +12313,7 @@
         <v>590</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="14"/>
@@ -12327,7 +12324,7 @@
         <v>590</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="14"/>
@@ -12338,7 +12335,7 @@
         <v>590</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="14"/>
@@ -12349,7 +12346,7 @@
         <v>590</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="14"/>
@@ -12360,9 +12357,11 @@
         <v>590</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="C678" s="2"/>
+        <v>724</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>803</v>
+      </c>
       <c r="D678" s="14"/>
       <c r="E678" s="2"/>
     </row>
@@ -12371,11 +12370,9 @@
         <v>590</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="C679" s="2" t="s">
-        <v>803</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="C679" s="2"/>
       <c r="D679" s="14"/>
       <c r="E679" s="2"/>
     </row>
@@ -12384,7 +12381,7 @@
         <v>590</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="14"/>
@@ -12395,7 +12392,7 @@
         <v>590</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="14"/>
@@ -12406,7 +12403,7 @@
         <v>590</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="14"/>
@@ -12417,7 +12414,7 @@
         <v>590</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="14"/>
@@ -12428,7 +12425,7 @@
         <v>590</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="14"/>
@@ -12439,7 +12436,7 @@
         <v>590</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="14"/>
@@ -12450,9 +12447,11 @@
         <v>590</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="C686" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>804</v>
+      </c>
       <c r="D686" s="14"/>
       <c r="E686" s="2"/>
     </row>
@@ -12461,11 +12460,9 @@
         <v>590</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C687" s="2" t="s">
-        <v>804</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="C687" s="2"/>
       <c r="D687" s="14"/>
       <c r="E687" s="2"/>
     </row>
@@ -12474,7 +12471,7 @@
         <v>590</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="14"/>
@@ -12485,7 +12482,7 @@
         <v>590</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="14"/>
@@ -12496,7 +12493,7 @@
         <v>590</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="14"/>
@@ -12507,7 +12504,7 @@
         <v>590</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="14"/>
@@ -12518,7 +12515,7 @@
         <v>590</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="14"/>
@@ -12529,7 +12526,7 @@
         <v>590</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="14"/>
@@ -12540,7 +12537,7 @@
         <v>590</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="14"/>
@@ -12551,7 +12548,7 @@
         <v>590</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="14"/>
@@ -12562,7 +12559,7 @@
         <v>590</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="14"/>
@@ -12573,7 +12570,7 @@
         <v>590</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="14"/>
@@ -12584,7 +12581,7 @@
         <v>590</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="14"/>
@@ -12595,10 +12592,12 @@
         <v>590</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>744</v>
+        <v>972</v>
       </c>
       <c r="C699" s="2"/>
-      <c r="D699" s="14"/>
+      <c r="D699" s="93" t="s">
+        <v>972</v>
+      </c>
       <c r="E699" s="2"/>
     </row>
     <row r="700" spans="1:5" ht="19">
@@ -12606,37 +12605,35 @@
         <v>590</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>973</v>
+        <v>746</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="93" t="s">
-        <v>973</v>
+        <v>746</v>
       </c>
       <c r="E700" s="2"/>
     </row>
     <row r="701" spans="1:5" ht="19">
       <c r="A701" s="73" t="s">
-        <v>590</v>
+        <v>747</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C701" s="2"/>
-      <c r="D701" s="93" t="s">
-        <v>746</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D701" s="14"/>
       <c r="E701" s="2"/>
     </row>
     <row r="702" spans="1:5" ht="19">
       <c r="A702" s="73" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C702" s="2" t="s">
-        <v>749</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="C702" s="2"/>
       <c r="D702" s="14"/>
       <c r="E702" s="2"/>
     </row>
@@ -12645,7 +12642,7 @@
         <v>750</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="14"/>
@@ -12656,7 +12653,7 @@
         <v>750</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="14"/>
@@ -12667,7 +12664,7 @@
         <v>750</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="14"/>
@@ -12678,7 +12675,7 @@
         <v>750</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="14"/>
@@ -12689,7 +12686,7 @@
         <v>750</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="14"/>
@@ -12700,7 +12697,7 @@
         <v>750</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="14"/>
@@ -12711,7 +12708,7 @@
         <v>750</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="14"/>
@@ -12722,7 +12719,7 @@
         <v>750</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="14"/>
@@ -12733,7 +12730,7 @@
         <v>750</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="14"/>
@@ -12744,7 +12741,7 @@
         <v>750</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="14"/>
@@ -12755,7 +12752,7 @@
         <v>750</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="14"/>
@@ -12766,7 +12763,7 @@
         <v>750</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="14"/>
@@ -12777,7 +12774,7 @@
         <v>750</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="14"/>
@@ -12788,7 +12785,7 @@
         <v>750</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="14"/>
@@ -12799,7 +12796,7 @@
         <v>750</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="14"/>
@@ -12810,7 +12807,7 @@
         <v>750</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="14"/>
@@ -12821,7 +12818,7 @@
         <v>750</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C719" s="2"/>
       <c r="D719" s="14"/>
@@ -12832,7 +12829,7 @@
         <v>750</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C720" s="2"/>
       <c r="D720" s="14"/>
@@ -12843,7 +12840,7 @@
         <v>750</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="14"/>
@@ -12854,7 +12851,7 @@
         <v>750</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="14"/>
@@ -12865,7 +12862,7 @@
         <v>750</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="14"/>
@@ -12876,7 +12873,7 @@
         <v>750</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="14"/>
@@ -12887,7 +12884,7 @@
         <v>750</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="14"/>
@@ -12895,10 +12892,10 @@
     </row>
     <row r="726" spans="1:5" ht="19">
       <c r="A726" s="73" t="s">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="14"/>
@@ -12909,7 +12906,7 @@
         <v>775</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="14"/>
@@ -12920,7 +12917,7 @@
         <v>775</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="14"/>
@@ -12931,7 +12928,7 @@
         <v>775</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="14"/>
@@ -12942,7 +12939,7 @@
         <v>775</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="14"/>
@@ -12953,7 +12950,7 @@
         <v>775</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="14"/>
@@ -12964,7 +12961,7 @@
         <v>775</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="14"/>
@@ -12975,22 +12972,11 @@
         <v>775</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C733" s="2"/>
-      <c r="D733" s="14"/>
-      <c r="E733" s="2"/>
-    </row>
-    <row r="734" spans="1:5" ht="19">
-      <c r="A734" s="73" t="s">
-        <v>775</v>
-      </c>
-      <c r="B734" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C734" s="2"/>
-      <c r="D734" s="85"/>
-      <c r="E734" s="83"/>
+      <c r="D733" s="85"/>
+      <c r="E733" s="83"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13009,7 +12995,7 @@
       <selection activeCell="B60" sqref="B60:C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="67.1640625" style="1" customWidth="1"/>
@@ -13017,7 +13003,7 @@
     <col min="4" max="4" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35" thickBot="1">
+    <row r="1" spans="1:4" ht="33" thickBot="1">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -20622,8 +20608,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -20697,10 +20683,10 @@
         <v>880</v>
       </c>
       <c r="C4" s="101" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D4" s="97" t="s">
         <v>1017</v>
-      </c>
-      <c r="D4" s="97" t="s">
-        <v>1018</v>
       </c>
       <c r="G4" s="75" t="s">
         <v>947</v>
@@ -20756,10 +20742,10 @@
         <v>880</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D8" s="92" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16">
@@ -20770,10 +20756,10 @@
         <v>880</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="64">
@@ -20900,10 +20886,10 @@
         <v>880</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="96">
@@ -20928,10 +20914,10 @@
         <v>880</v>
       </c>
       <c r="C19" s="101" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="80">
@@ -20942,10 +20928,10 @@
         <v>880</v>
       </c>
       <c r="C20" s="101" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="80">
@@ -20956,10 +20942,10 @@
         <v>880</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="80">
@@ -20970,10 +20956,10 @@
         <v>880</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="80">
@@ -20984,10 +20970,10 @@
         <v>880</v>
       </c>
       <c r="C23" s="101" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="80">
@@ -20998,10 +20984,10 @@
         <v>880</v>
       </c>
       <c r="C24" s="101" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="48">
@@ -21026,10 +21012,10 @@
         <v>880</v>
       </c>
       <c r="C26" s="101" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="32">
@@ -21040,10 +21026,10 @@
         <v>880</v>
       </c>
       <c r="C27" s="101" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="32">
@@ -21054,10 +21040,10 @@
         <v>880</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D28" s="97" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="32">
@@ -21068,10 +21054,10 @@
         <v>880</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="32">
@@ -21082,10 +21068,10 @@
         <v>880</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D30" s="97" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="32">
@@ -21096,10 +21082,10 @@
         <v>880</v>
       </c>
       <c r="C31" s="101" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D31" s="97" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="32">
@@ -21110,10 +21096,10 @@
         <v>880</v>
       </c>
       <c r="C32" s="101" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32">
@@ -21124,10 +21110,10 @@
         <v>880</v>
       </c>
       <c r="C33" s="101" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
@@ -21172,7 +21158,7 @@
         <v>880</v>
       </c>
       <c r="C36" s="101" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D36" s="97" t="s">
         <v>935</v>
@@ -21195,7 +21181,7 @@
         <v>573</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F37" s="69"/>
     </row>
@@ -21210,7 +21196,7 @@
         <v>574</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F38" s="69"/>
     </row>
@@ -21225,7 +21211,7 @@
         <v>575</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="160">
@@ -21239,13 +21225,13 @@
         <v>588</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E40" s="75" t="s">
+        <v>967</v>
+      </c>
+      <c r="F40" s="75" t="s">
         <v>968</v>
-      </c>
-      <c r="F40" s="75" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18">
@@ -21259,7 +21245,7 @@
         <v>746</v>
       </c>
       <c r="D41" s="92" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32">
@@ -21270,10 +21256,10 @@
         <v>880</v>
       </c>
       <c r="C42" s="105" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D42" s="92" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32">
@@ -21284,10 +21270,10 @@
         <v>880</v>
       </c>
       <c r="C43" s="105" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D43" s="92" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="32">
@@ -21301,7 +21287,7 @@
         <v>799</v>
       </c>
       <c r="D44" s="92" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="32">
@@ -21312,10 +21298,10 @@
         <v>880</v>
       </c>
       <c r="C45" s="105" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D45" s="92" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32">
@@ -21329,7 +21315,7 @@
         <v>798</v>
       </c>
       <c r="D46" s="92" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="19">
@@ -21340,10 +21326,10 @@
         <v>880</v>
       </c>
       <c r="C47" s="106" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D47" s="92" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32">
@@ -21357,7 +21343,7 @@
         <v>785</v>
       </c>
       <c r="D48" s="92" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="49" spans="3:3">

--- a/docs/purple_red.xlsx
+++ b/docs/purple_red.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/code/water-safety/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF096F9-1FF3-2640-9CB2-F3799EE97630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34E87F1-E480-B74D-8A66-DDD571FFB27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="4" r:id="rId1"/>
@@ -2863,10 +2863,6 @@
   </si>
   <si>
     <t>瑞芳區深澳海域</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>A至B點連線海域禁止從事橡皮艇活動。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -3456,6 +3452,11 @@
   <si>
     <t>金山區水尾附近海域</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A至B點連線海域禁止從事橡皮艇活動。A點為瑞芳象鼻岩端點，座標：( N：25°08’08.1"；E：121°49’35.4")
+B點為臺2縣75公里處岬角，座標：( N：25°07’42.5"；E：121°50’03.2")</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4483,8 +4484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B8C7E0-C41F-8E4E-98DD-8096E8890131}">
   <dimension ref="A1:E733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A528" sqref="A528:XFD528"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="C528" sqref="C528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4500,16 +4501,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="71" t="s">
+        <v>941</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>940</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="C1" s="76" t="s">
-        <v>941</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>943</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
@@ -4517,7 +4518,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="84"/>
@@ -4857,7 +4858,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -4890,10 +4891,10 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="96" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="19">
@@ -4953,7 +4954,7 @@
         <v>47</v>
       </c>
       <c r="D40" s="93" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -4962,7 +4963,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="14"/>
@@ -6120,7 +6121,7 @@
         <v>40</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="14"/>
@@ -6889,10 +6890,10 @@
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="14" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="19">
@@ -6926,7 +6927,7 @@
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="14" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E215" s="2"/>
     </row>
@@ -6937,7 +6938,7 @@
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="14" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E216" s="2"/>
     </row>
@@ -6952,10 +6953,10 @@
         <v>234</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="19">
@@ -7081,10 +7082,10 @@
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="19">
@@ -7098,7 +7099,7 @@
         <v>250</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E229" s="2"/>
     </row>
@@ -7768,7 +7769,7 @@
         <v>865</v>
       </c>
       <c r="D285" s="99" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E285" s="2"/>
     </row>
@@ -7936,7 +7937,7 @@
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="99" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E299" s="2"/>
     </row>
@@ -7949,7 +7950,7 @@
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="99" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E300" s="2"/>
     </row>
@@ -7962,7 +7963,7 @@
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="99" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E301" s="2"/>
     </row>
@@ -8091,7 +8092,7 @@
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="99" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E312" s="2"/>
     </row>
@@ -8137,7 +8138,7 @@
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="99" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E316" s="2"/>
     </row>
@@ -8150,7 +8151,7 @@
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="99" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E317" s="2"/>
     </row>
@@ -8762,7 +8763,7 @@
       </c>
       <c r="C369" s="78"/>
       <c r="D369" s="94" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E369" s="2"/>
     </row>
@@ -8830,11 +8831,11 @@
         <v>403</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C375" s="78"/>
       <c r="D375" s="94" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E375" s="2"/>
     </row>
@@ -8843,13 +8844,13 @@
         <v>403</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C376" s="79" t="s">
         <v>848</v>
       </c>
       <c r="D376" s="94" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E376" s="2"/>
     </row>
@@ -8992,7 +8993,7 @@
         <v>842</v>
       </c>
       <c r="D387" s="14" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E387" s="2"/>
     </row>
@@ -9079,7 +9080,7 @@
       <c r="B394" s="2"/>
       <c r="C394" s="78"/>
       <c r="D394" s="84" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E394" s="19"/>
     </row>
@@ -9151,7 +9152,7 @@
       </c>
       <c r="C400" s="74"/>
       <c r="D400" s="94" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E400" s="2"/>
     </row>
@@ -9164,7 +9165,7 @@
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="94" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E401" s="2"/>
     </row>
@@ -9288,7 +9289,7 @@
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="14" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E411" s="2"/>
     </row>
@@ -9380,7 +9381,7 @@
         <v>463</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="19">
@@ -9425,10 +9426,10 @@
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="14" t="s">
+        <v>964</v>
+      </c>
+      <c r="E422" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="E422" s="2" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="19">
@@ -10597,7 +10598,7 @@
         <v>792</v>
       </c>
       <c r="D522" s="14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E522" s="2"/>
     </row>
@@ -10654,7 +10655,7 @@
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
       <c r="D527" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E527" s="2"/>
     </row>
@@ -10843,7 +10844,7 @@
         <v>588</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="19">
@@ -10879,7 +10880,7 @@
         <v>784</v>
       </c>
       <c r="D546" s="94" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E546" s="2"/>
     </row>
@@ -11561,7 +11562,7 @@
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="93" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E606" s="2"/>
     </row>
@@ -11598,7 +11599,7 @@
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="93" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E609" s="2"/>
     </row>
@@ -12592,11 +12593,11 @@
         <v>590</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="93" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E699" s="2"/>
     </row>
@@ -20608,8 +20609,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -20644,7 +20645,7 @@
         <v>878</v>
       </c>
       <c r="G1" s="68" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="64">
@@ -20683,13 +20684,13 @@
         <v>880</v>
       </c>
       <c r="C4" s="101" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D4" s="97" t="s">
         <v>1016</v>
       </c>
-      <c r="D4" s="97" t="s">
-        <v>1017</v>
-      </c>
       <c r="G4" s="75" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48">
@@ -20742,10 +20743,10 @@
         <v>880</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D8" s="92" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16">
@@ -20756,10 +20757,10 @@
         <v>880</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="64">
@@ -20773,13 +20774,13 @@
         <v>895</v>
       </c>
       <c r="D10" s="90" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E10" s="69" t="s">
         <v>896</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="F10" s="69" t="s">
         <v>897</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16">
@@ -20790,389 +20791,389 @@
         <v>880</v>
       </c>
       <c r="C11" s="103" t="s">
+        <v>898</v>
+      </c>
+      <c r="D11" s="90" t="s">
         <v>899</v>
-      </c>
-      <c r="D11" s="90" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32">
       <c r="A12" s="88" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B12" s="88" t="s">
         <v>880</v>
       </c>
       <c r="C12" s="103" t="s">
+        <v>901</v>
+      </c>
+      <c r="D12" s="90" t="s">
         <v>902</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="E12" s="69" t="s">
         <v>903</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="F12" s="69" t="s">
         <v>904</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="80">
       <c r="A13" s="70" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B13" s="70" t="s">
         <v>880</v>
       </c>
       <c r="C13" s="100" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D13" s="69" t="s">
         <v>893</v>
       </c>
       <c r="E13" s="69" t="s">
+        <v>907</v>
+      </c>
+      <c r="F13" s="69" t="s">
         <v>908</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="48">
       <c r="A14" s="70" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B14" s="70" t="s">
         <v>880</v>
       </c>
       <c r="C14" s="100" t="s">
+        <v>910</v>
+      </c>
+      <c r="D14" s="69" t="s">
         <v>911</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32">
       <c r="A15" s="70" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B15" s="70" t="s">
         <v>880</v>
       </c>
       <c r="C15" s="100" t="s">
+        <v>912</v>
+      </c>
+      <c r="D15" s="69" t="s">
         <v>913</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32">
       <c r="A16" s="86" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B16" s="86" t="s">
         <v>880</v>
       </c>
       <c r="C16" s="104" t="s">
+        <v>915</v>
+      </c>
+      <c r="D16" s="87" t="s">
         <v>916</v>
-      </c>
-      <c r="D16" s="87" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16">
       <c r="A17" s="70" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B17" s="70" t="s">
         <v>880</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="96">
       <c r="A18" s="70" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>880</v>
       </c>
       <c r="C18" s="100" t="s">
+        <v>919</v>
+      </c>
+      <c r="D18" s="69" t="s">
         <v>920</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="48">
       <c r="A19" s="95" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B19" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C19" s="101" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="80">
       <c r="A20" s="95" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B20" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C20" s="101" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="80">
       <c r="A21" s="95" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B21" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="80">
       <c r="A22" s="95" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B22" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="80">
       <c r="A23" s="95" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B23" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C23" s="101" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="80">
       <c r="A24" s="95" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B24" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C24" s="101" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="48">
       <c r="A25" s="70" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B25" s="70" t="s">
         <v>880</v>
       </c>
       <c r="C25" s="100" t="s">
+        <v>921</v>
+      </c>
+      <c r="D25" s="69" t="s">
         <v>922</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="48">
       <c r="A26" s="95" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B26" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C26" s="101" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="32">
       <c r="A27" s="95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B27" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C27" s="101" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="32">
       <c r="A28" s="95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B28" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D28" s="97" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="32">
       <c r="A29" s="95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B29" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="32">
       <c r="A30" s="95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B30" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D30" s="97" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="32">
       <c r="A31" s="95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B31" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C31" s="101" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D31" s="97" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="32">
       <c r="A32" s="95" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B32" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C32" s="101" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D32" s="97" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32">
       <c r="A33" s="95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B33" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C33" s="101" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
       <c r="A34" s="70" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B34" s="70" t="s">
         <v>880</v>
       </c>
       <c r="C34" s="100" t="s">
+        <v>927</v>
+      </c>
+      <c r="D34" s="69" t="s">
         <v>928</v>
-      </c>
-      <c r="D34" s="69" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="64">
       <c r="A35" s="70" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B35" s="70" t="s">
         <v>880</v>
       </c>
       <c r="C35" s="100" t="s">
+        <v>930</v>
+      </c>
+      <c r="D35" s="69" t="s">
         <v>931</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="E35" s="69" t="s">
         <v>932</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="F35" s="69" t="s">
         <v>933</v>
-      </c>
-      <c r="F35" s="69" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="64">
       <c r="A36" s="95" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B36" s="95" t="s">
         <v>880</v>
       </c>
       <c r="C36" s="101" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D36" s="97" t="s">
+        <v>934</v>
+      </c>
+      <c r="E36" s="69" t="s">
         <v>935</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="F36" s="69" t="s">
         <v>936</v>
-      </c>
-      <c r="F36" s="69" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="32">
       <c r="A37" s="95" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B37" s="95" t="s">
         <v>880</v>
@@ -21181,13 +21182,13 @@
         <v>573</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F37" s="69"/>
     </row>
     <row r="38" spans="1:6" ht="32">
       <c r="A38" s="95" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B38" s="95" t="s">
         <v>880</v>
@@ -21196,13 +21197,13 @@
         <v>574</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F38" s="69"/>
     </row>
     <row r="39" spans="1:6" ht="32">
       <c r="A39" s="95" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B39" s="95" t="s">
         <v>880</v>
@@ -21211,12 +21212,12 @@
         <v>575</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="160">
       <c r="A40" s="95" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B40" s="95" t="s">
         <v>880</v>
@@ -21225,18 +21226,18 @@
         <v>588</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E40" s="75" t="s">
+        <v>966</v>
+      </c>
+      <c r="F40" s="75" t="s">
         <v>967</v>
-      </c>
-      <c r="F40" s="75" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18">
       <c r="A41" s="91" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B41" s="91" t="s">
         <v>880</v>
@@ -21245,40 +21246,40 @@
         <v>746</v>
       </c>
       <c r="D41" s="92" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32">
       <c r="A42" s="91" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B42" s="91" t="s">
         <v>880</v>
       </c>
       <c r="C42" s="105" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D42" s="92" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32">
       <c r="A43" s="91" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B43" s="91" t="s">
         <v>880</v>
       </c>
       <c r="C43" s="105" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D43" s="92" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="32">
       <c r="A44" s="91" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B44" s="91" t="s">
         <v>880</v>
@@ -21287,26 +21288,26 @@
         <v>799</v>
       </c>
       <c r="D44" s="92" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="32">
       <c r="A45" s="91" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B45" s="91" t="s">
         <v>880</v>
       </c>
       <c r="C45" s="105" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D45" s="92" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32">
       <c r="A46" s="91" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B46" s="91" t="s">
         <v>880</v>
@@ -21315,26 +21316,26 @@
         <v>798</v>
       </c>
       <c r="D46" s="92" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="19">
       <c r="A47" s="91" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B47" s="91" t="s">
         <v>880</v>
       </c>
       <c r="C47" s="106" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D47" s="92" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32">
       <c r="A48" s="91" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B48" s="91" t="s">
         <v>880</v>
@@ -21343,7 +21344,7 @@
         <v>785</v>
       </c>
       <c r="D48" s="92" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="49" spans="3:3">
